--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1414.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1414.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.459033539177919</v>
+        <v>1.206311106681824</v>
       </c>
       <c r="B1">
-        <v>2.018912415181958</v>
+        <v>1.367578744888306</v>
       </c>
       <c r="C1">
-        <v>2.311972276786089</v>
+        <v>6.955246925354004</v>
       </c>
       <c r="D1">
-        <v>2.641849773753131</v>
+        <v>2.187525272369385</v>
       </c>
       <c r="E1">
-        <v>3.336718187241671</v>
+        <v>1.168618202209473</v>
       </c>
     </row>
   </sheetData>
